--- a/Docs/расходники для пилота.xlsx
+++ b/Docs/расходники для пилота.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/расходники для пилота.xlsx
+++ b/Docs/расходники для пилота.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Метки NFC</t>
   </si>
@@ -49,12 +49,15 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Доставка комплекта</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,6 +134,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -178,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -500,7 +506,12 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>281</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,7 +550,7 @@
       </c>
       <c r="B18" s="2">
         <f>B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B15+B14+B16</f>
-        <v>3904</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,8 +558,8 @@
         <v>9</v>
       </c>
       <c r="B19" s="2">
-        <f>B18*0.6</f>
-        <v>2342.4</v>
+        <f>B18*0.5</f>
+        <v>2086</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +568,7 @@
       </c>
       <c r="B20" s="2">
         <f>B18+B19</f>
-        <v>6246.4</v>
+        <v>6258</v>
       </c>
     </row>
   </sheetData>
